--- a/state_results/Contact_Recreation/MowhanauStreamatFootbridge_008d7a45db.xlsx
+++ b/state_results/Contact_Recreation/MowhanauStreamatFootbridge_008d7a45db.xlsx
@@ -908,7 +908,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>2004 - 2008</t>
@@ -1344,7 +1348,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>2005 - 2009</t>
@@ -1780,7 +1788,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>2006 - 2010</t>
@@ -2216,7 +2228,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>2007 - 2011</t>
@@ -2652,7 +2668,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>2008 - 2012</t>
@@ -3088,7 +3108,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>2009 - 2013</t>
@@ -3524,7 +3548,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>2010 - 2014</t>
@@ -3960,7 +3988,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
           <t>2011 - 2015</t>
@@ -4396,7 +4428,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>2012 - 2016</t>
@@ -4832,7 +4868,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>2013 - 2017</t>
@@ -5268,7 +5308,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>2014 - 2018</t>
@@ -5704,7 +5748,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>2015 - 2019</t>
@@ -6140,7 +6188,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -6576,7 +6628,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -7012,7 +7068,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Poor</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
           <t>2018 - 2022</t>

--- a/state_results/Contact_Recreation/MowhanauStreamatFootbridge_008d7a45db.xlsx
+++ b/state_results/Contact_Recreation/MowhanauStreamatFootbridge_008d7a45db.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="55">
   <si>
     <t>site name</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
+  </si>
+  <si>
+    <t>2021 - 2025</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -530,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,13 +624,13 @@
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>820</v>
       </c>
       <c r="G2">
-        <v>2294.639908451</v>
+        <v>2257.14869044106</v>
       </c>
       <c r="H2">
         <v>24200</v>
@@ -645,7 +651,7 @@
         <v>2155</v>
       </c>
       <c r="N2">
-        <v>2677.76026</v>
+        <v>3002.5</v>
       </c>
       <c r="O2">
         <v>8770</v>
@@ -657,19 +663,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -686,13 +692,13 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>820</v>
       </c>
       <c r="G3">
-        <v>2294.639908451</v>
+        <v>2257.14869044106</v>
       </c>
       <c r="H3">
         <v>24200</v>
@@ -713,7 +719,7 @@
         <v>2155</v>
       </c>
       <c r="N3">
-        <v>2677.76026</v>
+        <v>3002.5</v>
       </c>
       <c r="O3">
         <v>8770</v>
@@ -725,19 +731,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -754,13 +760,13 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>820</v>
       </c>
       <c r="G4">
-        <v>2294.639908451</v>
+        <v>2257.14869044106</v>
       </c>
       <c r="H4">
         <v>24200</v>
@@ -781,7 +787,7 @@
         <v>2155</v>
       </c>
       <c r="N4">
-        <v>2677.76026</v>
+        <v>3002.5</v>
       </c>
       <c r="O4">
         <v>8770</v>
@@ -793,19 +799,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -822,13 +828,13 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>820</v>
       </c>
       <c r="G5">
-        <v>2294.639908451</v>
+        <v>2257.14869044106</v>
       </c>
       <c r="H5">
         <v>24200</v>
@@ -849,7 +855,7 @@
         <v>2155</v>
       </c>
       <c r="N5">
-        <v>2677.76026</v>
+        <v>3002.5</v>
       </c>
       <c r="O5">
         <v>8770</v>
@@ -861,19 +867,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -890,13 +896,13 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>820</v>
       </c>
       <c r="G6">
-        <v>2294.639908451</v>
+        <v>2257.14869044106</v>
       </c>
       <c r="H6">
         <v>24200</v>
@@ -917,7 +923,7 @@
         <v>2155</v>
       </c>
       <c r="N6">
-        <v>2677.76026</v>
+        <v>3002.5</v>
       </c>
       <c r="O6">
         <v>8770</v>
@@ -929,19 +935,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -958,13 +964,13 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>729</v>
       </c>
       <c r="G7">
-        <v>1907.43959390426</v>
+        <v>1865.10665081139</v>
       </c>
       <c r="H7">
         <v>24200</v>
@@ -997,19 +1003,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1026,13 +1032,13 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>729</v>
       </c>
       <c r="G8">
-        <v>1907.43959390426</v>
+        <v>1865.10665081139</v>
       </c>
       <c r="H8">
         <v>24200</v>
@@ -1065,19 +1071,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1094,13 +1100,13 @@
         <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>729</v>
       </c>
       <c r="G9">
-        <v>1907.43959390426</v>
+        <v>1865.10665081139</v>
       </c>
       <c r="H9">
         <v>24200</v>
@@ -1133,19 +1139,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1162,13 +1168,13 @@
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <v>729</v>
       </c>
       <c r="G10">
-        <v>1907.43959390426</v>
+        <v>1865.10665081139</v>
       </c>
       <c r="H10">
         <v>24200</v>
@@ -1201,19 +1207,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1230,13 +1236,13 @@
         <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <v>729</v>
       </c>
       <c r="G11">
-        <v>1907.43959390426</v>
+        <v>1865.10665081139</v>
       </c>
       <c r="H11">
         <v>24200</v>
@@ -1269,19 +1275,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1298,13 +1304,13 @@
         <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>700</v>
       </c>
       <c r="G12">
-        <v>1516.56845849682</v>
+        <v>1471.70277521891</v>
       </c>
       <c r="H12">
         <v>17300</v>
@@ -1337,19 +1343,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1366,13 +1372,13 @@
         <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <v>700</v>
       </c>
       <c r="G13">
-        <v>1516.56845849682</v>
+        <v>1471.70277521891</v>
       </c>
       <c r="H13">
         <v>17300</v>
@@ -1405,19 +1411,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1434,13 +1440,13 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <v>700</v>
       </c>
       <c r="G14">
-        <v>1516.56845849682</v>
+        <v>1471.70277521891</v>
       </c>
       <c r="H14">
         <v>17300</v>
@@ -1473,19 +1479,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1502,13 +1508,13 @@
         <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F15">
         <v>700</v>
       </c>
       <c r="G15">
-        <v>1516.56845849682</v>
+        <v>1471.70277521891</v>
       </c>
       <c r="H15">
         <v>17300</v>
@@ -1541,19 +1547,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1570,13 +1576,13 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <v>700</v>
       </c>
       <c r="G16">
-        <v>1516.56845849682</v>
+        <v>1471.70277521891</v>
       </c>
       <c r="H16">
         <v>17300</v>
@@ -1609,19 +1615,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1638,7 +1644,7 @@
         <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17">
         <v>620</v>
@@ -1677,19 +1683,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1706,7 +1712,7 @@
         <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18">
         <v>620</v>
@@ -1745,19 +1751,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1774,7 +1780,7 @@
         <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F19">
         <v>620</v>
@@ -1813,19 +1819,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1842,7 +1848,7 @@
         <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>620</v>
@@ -1881,19 +1887,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1910,7 +1916,7 @@
         <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F21">
         <v>620</v>
@@ -1949,19 +1955,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1978,7 +1984,7 @@
         <v>34</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>520</v>
@@ -2017,19 +2023,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2046,7 +2052,7 @@
         <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F23">
         <v>520</v>
@@ -2085,19 +2091,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2114,7 +2120,7 @@
         <v>34</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F24">
         <v>520</v>
@@ -2153,19 +2159,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2182,7 +2188,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F25">
         <v>520</v>
@@ -2221,19 +2227,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2250,7 +2256,7 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F26">
         <v>520</v>
@@ -2289,19 +2295,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2318,7 +2324,7 @@
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F27">
         <v>586.5</v>
@@ -2357,19 +2363,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2386,7 +2392,7 @@
         <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F28">
         <v>586.5</v>
@@ -2425,19 +2431,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2454,7 +2460,7 @@
         <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F29">
         <v>586.5</v>
@@ -2493,19 +2499,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2522,7 +2528,7 @@
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F30">
         <v>586.5</v>
@@ -2561,19 +2567,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2590,7 +2596,7 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F31">
         <v>586.5</v>
@@ -2629,19 +2635,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2658,7 +2664,7 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F32">
         <v>510</v>
@@ -2697,19 +2703,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2726,7 +2732,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F33">
         <v>510</v>
@@ -2765,19 +2771,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2794,7 +2800,7 @@
         <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F34">
         <v>510</v>
@@ -2833,19 +2839,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2862,7 +2868,7 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F35">
         <v>510</v>
@@ -2901,19 +2907,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2930,7 +2936,7 @@
         <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F36">
         <v>510</v>
@@ -2969,19 +2975,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -2998,16 +3004,16 @@
         <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F37">
         <v>460</v>
       </c>
       <c r="G37">
-        <v>1043.79609173646</v>
+        <v>1046.64599635756</v>
       </c>
       <c r="H37">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I37">
         <v>3300</v>
@@ -3037,19 +3043,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3066,16 +3072,16 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F38">
         <v>460</v>
       </c>
       <c r="G38">
-        <v>1043.79609173646</v>
+        <v>1046.64599635756</v>
       </c>
       <c r="H38">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I38">
         <v>3300</v>
@@ -3105,19 +3111,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3134,16 +3140,16 @@
         <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F39">
         <v>460</v>
       </c>
       <c r="G39">
-        <v>1043.79609173646</v>
+        <v>1046.64599635756</v>
       </c>
       <c r="H39">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I39">
         <v>3300</v>
@@ -3173,19 +3179,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3202,16 +3208,16 @@
         <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F40">
         <v>460</v>
       </c>
       <c r="G40">
-        <v>1043.79609173646</v>
+        <v>1046.64599635756</v>
       </c>
       <c r="H40">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I40">
         <v>3300</v>
@@ -3241,19 +3247,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3270,16 +3276,16 @@
         <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F41">
         <v>460</v>
       </c>
       <c r="G41">
-        <v>1043.79609173646</v>
+        <v>1046.64599635756</v>
       </c>
       <c r="H41">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I41">
         <v>3300</v>
@@ -3309,19 +3315,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3338,16 +3344,16 @@
         <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F42">
         <v>420</v>
       </c>
       <c r="G42">
-        <v>1009.87203043209</v>
+        <v>1012.74402733708</v>
       </c>
       <c r="H42">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I42">
         <v>3960</v>
@@ -3377,19 +3383,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3406,16 +3412,16 @@
         <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F43">
         <v>420</v>
       </c>
       <c r="G43">
-        <v>1009.87203043209</v>
+        <v>1012.74402733708</v>
       </c>
       <c r="H43">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I43">
         <v>3960</v>
@@ -3445,19 +3451,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3474,16 +3480,16 @@
         <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F44">
         <v>420</v>
       </c>
       <c r="G44">
-        <v>1009.87203043209</v>
+        <v>1012.74402733708</v>
       </c>
       <c r="H44">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I44">
         <v>3960</v>
@@ -3513,19 +3519,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3542,16 +3548,16 @@
         <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F45">
         <v>420</v>
       </c>
       <c r="G45">
-        <v>1009.87203043209</v>
+        <v>1012.74402733708</v>
       </c>
       <c r="H45">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I45">
         <v>3960</v>
@@ -3581,19 +3587,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U45" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V45" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3610,16 +3616,16 @@
         <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F46">
         <v>420</v>
       </c>
       <c r="G46">
-        <v>1009.87203043209</v>
+        <v>1012.74402733708</v>
       </c>
       <c r="H46">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I46">
         <v>3960</v>
@@ -3649,19 +3655,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3678,16 +3684,16 @@
         <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F47">
         <v>390</v>
       </c>
       <c r="G47">
-        <v>944.027495478265</v>
+        <v>946.944720680968</v>
       </c>
       <c r="H47">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I47">
         <v>3990</v>
@@ -3717,19 +3723,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3746,16 +3752,16 @@
         <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F48">
         <v>390</v>
       </c>
       <c r="G48">
-        <v>944.027495478265</v>
+        <v>946.944720680968</v>
       </c>
       <c r="H48">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I48">
         <v>3990</v>
@@ -3785,19 +3791,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3814,16 +3820,16 @@
         <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F49">
         <v>390</v>
       </c>
       <c r="G49">
-        <v>944.027495478265</v>
+        <v>946.944720680968</v>
       </c>
       <c r="H49">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I49">
         <v>3990</v>
@@ -3853,19 +3859,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U49" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -3882,16 +3888,16 @@
         <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F50">
         <v>390</v>
       </c>
       <c r="G50">
-        <v>944.027495478265</v>
+        <v>946.944720680968</v>
       </c>
       <c r="H50">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I50">
         <v>3990</v>
@@ -3921,19 +3927,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U50" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3950,16 +3956,16 @@
         <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F51">
         <v>390</v>
       </c>
       <c r="G51">
-        <v>944.027495478265</v>
+        <v>946.944720680968</v>
       </c>
       <c r="H51">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I51">
         <v>3990</v>
@@ -3989,19 +3995,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4018,16 +4024,16 @@
         <v>40</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F52">
         <v>430</v>
       </c>
       <c r="G52">
-        <v>953.28733799795</v>
+        <v>956.204563200653</v>
       </c>
       <c r="H52">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I52">
         <v>3990</v>
@@ -4057,19 +4063,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4086,16 +4092,16 @@
         <v>40</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F53">
         <v>430</v>
       </c>
       <c r="G53">
-        <v>953.28733799795</v>
+        <v>956.204563200653</v>
       </c>
       <c r="H53">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I53">
         <v>3990</v>
@@ -4125,19 +4131,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4154,16 +4160,16 @@
         <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F54">
         <v>430</v>
       </c>
       <c r="G54">
-        <v>953.28733799795</v>
+        <v>956.204563200653</v>
       </c>
       <c r="H54">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I54">
         <v>3990</v>
@@ -4193,19 +4199,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -4222,16 +4228,16 @@
         <v>40</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F55">
         <v>430</v>
       </c>
       <c r="G55">
-        <v>953.28733799795</v>
+        <v>956.204563200653</v>
       </c>
       <c r="H55">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I55">
         <v>3990</v>
@@ -4261,19 +4267,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V55" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:22">
@@ -4290,16 +4296,16 @@
         <v>40</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F56">
         <v>430</v>
       </c>
       <c r="G56">
-        <v>953.28733799795</v>
+        <v>956.204563200653</v>
       </c>
       <c r="H56">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I56">
         <v>3990</v>
@@ -4329,19 +4335,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -4358,16 +4364,16 @@
         <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F57">
         <v>480</v>
       </c>
       <c r="G57">
-        <v>990.067935405917</v>
+        <v>993.031836211863</v>
       </c>
       <c r="H57">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I57">
         <v>4050</v>
@@ -4397,19 +4403,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U57" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V57" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -4426,16 +4432,16 @@
         <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F58">
         <v>480</v>
       </c>
       <c r="G58">
-        <v>990.067935405917</v>
+        <v>993.031836211863</v>
       </c>
       <c r="H58">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I58">
         <v>4050</v>
@@ -4465,19 +4471,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R58" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T58" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V58" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:22">
@@ -4494,16 +4500,16 @@
         <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F59">
         <v>480</v>
       </c>
       <c r="G59">
-        <v>990.067935405917</v>
+        <v>993.031836211863</v>
       </c>
       <c r="H59">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I59">
         <v>4050</v>
@@ -4533,19 +4539,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R59" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T59" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -4562,16 +4568,16 @@
         <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F60">
         <v>480</v>
       </c>
       <c r="G60">
-        <v>990.067935405917</v>
+        <v>993.031836211863</v>
       </c>
       <c r="H60">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I60">
         <v>4050</v>
@@ -4601,19 +4607,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R60" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T60" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:22">
@@ -4630,16 +4636,16 @@
         <v>41</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F61">
         <v>480</v>
       </c>
       <c r="G61">
-        <v>990.067935405917</v>
+        <v>993.031836211863</v>
       </c>
       <c r="H61">
-        <v>10050.4919257396</v>
+        <v>10420.9795264829</v>
       </c>
       <c r="I61">
         <v>4050</v>
@@ -4669,19 +4675,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T61" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -4698,7 +4704,7 @@
         <v>42</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F62">
         <v>477.5</v>
@@ -4737,19 +4743,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R62" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4766,7 +4772,7 @@
         <v>42</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F63">
         <v>477.5</v>
@@ -4805,19 +4811,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S63" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T63" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4834,7 +4840,7 @@
         <v>42</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F64">
         <v>477.5</v>
@@ -4873,19 +4879,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S64" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T64" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:22">
@@ -4902,7 +4908,7 @@
         <v>42</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F65">
         <v>477.5</v>
@@ -4941,19 +4947,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -4970,7 +4976,7 @@
         <v>42</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F66">
         <v>477.5</v>
@@ -5009,19 +5015,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R66" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S66" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T66" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U66" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V66" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -5038,7 +5044,7 @@
         <v>43</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F67">
         <v>532.5</v>
@@ -5077,19 +5083,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R67" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U67" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:22">
@@ -5106,7 +5112,7 @@
         <v>43</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F68">
         <v>532.5</v>
@@ -5145,19 +5151,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R68" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U68" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V68" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -5174,7 +5180,7 @@
         <v>43</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F69">
         <v>532.5</v>
@@ -5213,19 +5219,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U69" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V69" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -5242,7 +5248,7 @@
         <v>43</v>
       </c>
       <c r="E70" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F70">
         <v>532.5</v>
@@ -5281,19 +5287,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S70" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T70" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U70" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V70" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -5310,7 +5316,7 @@
         <v>43</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F71">
         <v>532.5</v>
@@ -5349,19 +5355,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T71" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U71" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V71" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -5378,7 +5384,7 @@
         <v>44</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F72">
         <v>591</v>
@@ -5417,19 +5423,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U72" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V72" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -5446,7 +5452,7 @@
         <v>44</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F73">
         <v>591</v>
@@ -5485,19 +5491,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U73" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V73" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -5514,7 +5520,7 @@
         <v>44</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F74">
         <v>591</v>
@@ -5553,19 +5559,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S74" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T74" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U74" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V74" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -5582,7 +5588,7 @@
         <v>44</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F75">
         <v>591</v>
@@ -5621,19 +5627,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S75" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T75" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -5650,7 +5656,7 @@
         <v>44</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F76">
         <v>591</v>
@@ -5689,19 +5695,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S76" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T76" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U76" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V76" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -5718,7 +5724,7 @@
         <v>45</v>
       </c>
       <c r="E77" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F77">
         <v>657</v>
@@ -5757,19 +5763,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T77" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V77" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5786,7 +5792,7 @@
         <v>45</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F78">
         <v>657</v>
@@ -5825,19 +5831,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R78" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S78" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T78" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -5854,7 +5860,7 @@
         <v>45</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F79">
         <v>657</v>
@@ -5893,19 +5899,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R79" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S79" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T79" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U79" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V79" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -5922,7 +5928,7 @@
         <v>45</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F80">
         <v>657</v>
@@ -5961,19 +5967,19 @@
         <v>5583091.402</v>
       </c>
       <c r="R80" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S80" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T80" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V80" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:22">
@@ -5990,7 +5996,7 @@
         <v>45</v>
       </c>
       <c r="E81" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F81">
         <v>657</v>
@@ -6029,19 +6035,699 @@
         <v>5583091.402</v>
       </c>
       <c r="R81" t="s">
+        <v>49</v>
+      </c>
+      <c r="S81" t="s">
+        <v>50</v>
+      </c>
+      <c r="T81" t="s">
+        <v>50</v>
+      </c>
+      <c r="U81" t="s">
+        <v>51</v>
+      </c>
+      <c r="V81" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82">
+        <v>689</v>
+      </c>
+      <c r="G82">
+        <v>1180.56097560976</v>
+      </c>
+      <c r="H82">
+        <v>13000</v>
+      </c>
+      <c r="I82">
+        <v>4441</v>
+      </c>
+      <c r="J82">
+        <v>65.8536585365854</v>
+      </c>
+      <c r="K82">
+        <v>95.9349593495935</v>
+      </c>
+      <c r="L82">
+        <v>782.5</v>
+      </c>
+      <c r="M82">
+        <v>1290</v>
+      </c>
+      <c r="N82">
+        <v>1387.8</v>
+      </c>
+      <c r="O82">
+        <v>2171.7</v>
+      </c>
+      <c r="P82">
+        <v>1762563.938</v>
+      </c>
+      <c r="Q82">
+        <v>5583091.402</v>
+      </c>
+      <c r="R82" t="s">
+        <v>49</v>
+      </c>
+      <c r="S82" t="s">
+        <v>50</v>
+      </c>
+      <c r="T82" t="s">
+        <v>50</v>
+      </c>
+      <c r="U82" t="s">
+        <v>51</v>
+      </c>
+      <c r="V82" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" t="s">
+        <v>48</v>
+      </c>
+      <c r="F83">
+        <v>689</v>
+      </c>
+      <c r="G83">
+        <v>1180.56097560976</v>
+      </c>
+      <c r="H83">
+        <v>13000</v>
+      </c>
+      <c r="I83">
+        <v>4441</v>
+      </c>
+      <c r="J83">
+        <v>65.8536585365854</v>
+      </c>
+      <c r="K83">
+        <v>95.9349593495935</v>
+      </c>
+      <c r="L83">
+        <v>782.5</v>
+      </c>
+      <c r="M83">
+        <v>1290</v>
+      </c>
+      <c r="N83">
+        <v>1387.8</v>
+      </c>
+      <c r="O83">
+        <v>2171.7</v>
+      </c>
+      <c r="P83">
+        <v>1762563.938</v>
+      </c>
+      <c r="Q83">
+        <v>5583091.402</v>
+      </c>
+      <c r="R83" t="s">
+        <v>49</v>
+      </c>
+      <c r="S83" t="s">
+        <v>50</v>
+      </c>
+      <c r="T83" t="s">
+        <v>50</v>
+      </c>
+      <c r="U83" t="s">
+        <v>51</v>
+      </c>
+      <c r="V83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" t="s">
+        <v>22</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+      <c r="D84" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84">
+        <v>689</v>
+      </c>
+      <c r="G84">
+        <v>1180.56097560976</v>
+      </c>
+      <c r="H84">
+        <v>13000</v>
+      </c>
+      <c r="I84">
+        <v>4441</v>
+      </c>
+      <c r="J84">
+        <v>65.8536585365854</v>
+      </c>
+      <c r="K84">
+        <v>95.9349593495935</v>
+      </c>
+      <c r="L84">
+        <v>782.5</v>
+      </c>
+      <c r="M84">
+        <v>1290</v>
+      </c>
+      <c r="N84">
+        <v>1387.8</v>
+      </c>
+      <c r="O84">
+        <v>2171.7</v>
+      </c>
+      <c r="P84">
+        <v>1762563.938</v>
+      </c>
+      <c r="Q84">
+        <v>5583091.402</v>
+      </c>
+      <c r="R84" t="s">
+        <v>49</v>
+      </c>
+      <c r="S84" t="s">
+        <v>50</v>
+      </c>
+      <c r="T84" t="s">
+        <v>50</v>
+      </c>
+      <c r="U84" t="s">
+        <v>51</v>
+      </c>
+      <c r="V84" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" t="s">
+        <v>22</v>
+      </c>
+      <c r="B85" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85">
+        <v>689</v>
+      </c>
+      <c r="G85">
+        <v>1180.56097560976</v>
+      </c>
+      <c r="H85">
+        <v>13000</v>
+      </c>
+      <c r="I85">
+        <v>4441</v>
+      </c>
+      <c r="J85">
+        <v>65.8536585365854</v>
+      </c>
+      <c r="K85">
+        <v>95.9349593495935</v>
+      </c>
+      <c r="L85">
+        <v>782.5</v>
+      </c>
+      <c r="M85">
+        <v>1290</v>
+      </c>
+      <c r="N85">
+        <v>1387.8</v>
+      </c>
+      <c r="O85">
+        <v>2171.7</v>
+      </c>
+      <c r="P85">
+        <v>1762563.938</v>
+      </c>
+      <c r="Q85">
+        <v>5583091.402</v>
+      </c>
+      <c r="R85" t="s">
+        <v>49</v>
+      </c>
+      <c r="S85" t="s">
+        <v>50</v>
+      </c>
+      <c r="T85" t="s">
+        <v>50</v>
+      </c>
+      <c r="U85" t="s">
+        <v>51</v>
+      </c>
+      <c r="V85" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86">
+        <v>689</v>
+      </c>
+      <c r="G86">
+        <v>1180.56097560976</v>
+      </c>
+      <c r="H86">
+        <v>13000</v>
+      </c>
+      <c r="I86">
+        <v>4441</v>
+      </c>
+      <c r="J86">
+        <v>65.8536585365854</v>
+      </c>
+      <c r="K86">
+        <v>95.9349593495935</v>
+      </c>
+      <c r="L86">
+        <v>782.5</v>
+      </c>
+      <c r="M86">
+        <v>1290</v>
+      </c>
+      <c r="N86">
+        <v>1387.8</v>
+      </c>
+      <c r="O86">
+        <v>2171.7</v>
+      </c>
+      <c r="P86">
+        <v>1762563.938</v>
+      </c>
+      <c r="Q86">
+        <v>5583091.402</v>
+      </c>
+      <c r="R86" t="s">
+        <v>49</v>
+      </c>
+      <c r="S86" t="s">
+        <v>50</v>
+      </c>
+      <c r="T86" t="s">
+        <v>50</v>
+      </c>
+      <c r="U86" t="s">
+        <v>51</v>
+      </c>
+      <c r="V86" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B87" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" t="s">
         <v>47</v>
       </c>
-      <c r="S81" t="s">
-        <v>48</v>
-      </c>
-      <c r="T81" t="s">
-        <v>48</v>
-      </c>
-      <c r="U81" t="s">
-        <v>49</v>
-      </c>
-      <c r="V81" t="s">
+      <c r="E87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87">
+        <v>771</v>
+      </c>
+      <c r="G87">
+        <v>1199.25984251968</v>
+      </c>
+      <c r="H87">
+        <v>11200</v>
+      </c>
+      <c r="I87">
+        <v>4694.3</v>
+      </c>
+      <c r="J87">
+        <v>70.0787401574803</v>
+      </c>
+      <c r="K87">
+        <v>96.06299212598429</v>
+      </c>
+      <c r="L87">
+        <v>886</v>
+      </c>
+      <c r="M87">
+        <v>1356.2</v>
+      </c>
+      <c r="N87">
+        <v>1418.75</v>
+      </c>
+      <c r="O87">
+        <v>2219.3</v>
+      </c>
+      <c r="P87">
+        <v>1762563.938</v>
+      </c>
+      <c r="Q87">
+        <v>5583091.402</v>
+      </c>
+      <c r="R87" t="s">
+        <v>49</v>
+      </c>
+      <c r="S87" t="s">
+        <v>50</v>
+      </c>
+      <c r="T87" t="s">
+        <v>50</v>
+      </c>
+      <c r="U87" t="s">
+        <v>51</v>
+      </c>
+      <c r="V87" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" t="s">
+        <v>47</v>
+      </c>
+      <c r="E88" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88">
+        <v>771</v>
+      </c>
+      <c r="G88">
+        <v>1199.25984251968</v>
+      </c>
+      <c r="H88">
+        <v>11200</v>
+      </c>
+      <c r="I88">
+        <v>4694.3</v>
+      </c>
+      <c r="J88">
+        <v>70.0787401574803</v>
+      </c>
+      <c r="K88">
+        <v>96.06299212598429</v>
+      </c>
+      <c r="L88">
+        <v>886</v>
+      </c>
+      <c r="M88">
+        <v>1356.2</v>
+      </c>
+      <c r="N88">
+        <v>1418.75</v>
+      </c>
+      <c r="O88">
+        <v>2219.3</v>
+      </c>
+      <c r="P88">
+        <v>1762563.938</v>
+      </c>
+      <c r="Q88">
+        <v>5583091.402</v>
+      </c>
+      <c r="R88" t="s">
+        <v>49</v>
+      </c>
+      <c r="S88" t="s">
+        <v>50</v>
+      </c>
+      <c r="T88" t="s">
+        <v>50</v>
+      </c>
+      <c r="U88" t="s">
+        <v>51</v>
+      </c>
+      <c r="V88" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89">
+        <v>771</v>
+      </c>
+      <c r="G89">
+        <v>1199.25984251968</v>
+      </c>
+      <c r="H89">
+        <v>11200</v>
+      </c>
+      <c r="I89">
+        <v>4694.3</v>
+      </c>
+      <c r="J89">
+        <v>70.0787401574803</v>
+      </c>
+      <c r="K89">
+        <v>96.06299212598429</v>
+      </c>
+      <c r="L89">
+        <v>886</v>
+      </c>
+      <c r="M89">
+        <v>1356.2</v>
+      </c>
+      <c r="N89">
+        <v>1418.75</v>
+      </c>
+      <c r="O89">
+        <v>2219.3</v>
+      </c>
+      <c r="P89">
+        <v>1762563.938</v>
+      </c>
+      <c r="Q89">
+        <v>5583091.402</v>
+      </c>
+      <c r="R89" t="s">
+        <v>49</v>
+      </c>
+      <c r="S89" t="s">
+        <v>50</v>
+      </c>
+      <c r="T89" t="s">
+        <v>50</v>
+      </c>
+      <c r="U89" t="s">
+        <v>51</v>
+      </c>
+      <c r="V89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
+      <c r="A90" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" t="s">
+        <v>26</v>
+      </c>
+      <c r="C90" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90">
+        <v>771</v>
+      </c>
+      <c r="G90">
+        <v>1199.25984251968</v>
+      </c>
+      <c r="H90">
+        <v>11200</v>
+      </c>
+      <c r="I90">
+        <v>4694.3</v>
+      </c>
+      <c r="J90">
+        <v>70.0787401574803</v>
+      </c>
+      <c r="K90">
+        <v>96.06299212598429</v>
+      </c>
+      <c r="L90">
+        <v>886</v>
+      </c>
+      <c r="M90">
+        <v>1356.2</v>
+      </c>
+      <c r="N90">
+        <v>1418.75</v>
+      </c>
+      <c r="O90">
+        <v>2219.3</v>
+      </c>
+      <c r="P90">
+        <v>1762563.938</v>
+      </c>
+      <c r="Q90">
+        <v>5583091.402</v>
+      </c>
+      <c r="R90" t="s">
+        <v>49</v>
+      </c>
+      <c r="S90" t="s">
+        <v>50</v>
+      </c>
+      <c r="T90" t="s">
+        <v>50</v>
+      </c>
+      <c r="U90" t="s">
+        <v>51</v>
+      </c>
+      <c r="V90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B91" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91">
+        <v>771</v>
+      </c>
+      <c r="G91">
+        <v>1199.25984251968</v>
+      </c>
+      <c r="H91">
+        <v>11200</v>
+      </c>
+      <c r="I91">
+        <v>4694.3</v>
+      </c>
+      <c r="J91">
+        <v>70.0787401574803</v>
+      </c>
+      <c r="K91">
+        <v>96.06299212598429</v>
+      </c>
+      <c r="L91">
+        <v>886</v>
+      </c>
+      <c r="M91">
+        <v>1356.2</v>
+      </c>
+      <c r="N91">
+        <v>1418.75</v>
+      </c>
+      <c r="O91">
+        <v>2219.3</v>
+      </c>
+      <c r="P91">
+        <v>1762563.938</v>
+      </c>
+      <c r="Q91">
+        <v>5583091.402</v>
+      </c>
+      <c r="R91" t="s">
+        <v>49</v>
+      </c>
+      <c r="S91" t="s">
+        <v>50</v>
+      </c>
+      <c r="T91" t="s">
+        <v>50</v>
+      </c>
+      <c r="U91" t="s">
+        <v>51</v>
+      </c>
+      <c r="V91" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
